--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4000607.379733111</v>
+        <v>4002367.910035897</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>298.7307299422358</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>68.8500543646704</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>87.56115536271604</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>334.8313968932912</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039627</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>133.6650819731273</v>
+        <v>79.03187764303651</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.70057996958644</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>84.82420463792873</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1597912951069</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605717463</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881312</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>61.66004604095001</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>162.4016674345625</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722587</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703258</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012171</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428122</v>
+        <v>83.06560892428297</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158137</v>
@@ -4433,22 +4433,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1899.346003793995</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614817</v>
+        <v>1541.080305187245</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1155.292052589001</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>744.3061477993931</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4670,28 +4670,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177561</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4764,13 +4764,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.14770589484</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288089</v>
+        <v>985.1133520179771</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898451</v>
+        <v>599.3250994197329</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002376</v>
+        <v>188.3391946301253</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875185</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899373</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4904,7 +4904,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4913,16 +4913,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
         <v>2319.799627685893</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5503,37 +5503,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,7 +5591,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5782,19 +5782,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,46 +6217,46 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2384.680208791423</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2165.078743814364</v>
       </c>
       <c r="U28" t="n">
-        <v>1880.464695940366</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V28" t="n">
-        <v>1625.780207734479</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W28" t="n">
-        <v>1336.363037697518</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.373486799501</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611464</v>
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471044</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>842.6091804069461</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1470.207143961553</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2022.11687420084</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2445.740023695908</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192292</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111686</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7414,49 +7414,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,34 +7475,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273893</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138402</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.50206557031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192895</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111743</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7666,34 +7666,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K45" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270438</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-3.278985858334735e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405064</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>119.3662399606946</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864873</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856556</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194267</v>
+        <v>57.22910392194089</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856556</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="K2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
@@ -26352,10 +26352,10 @@
         <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>6.200466486916411e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.503836160579873e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.202397278</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>5.339677442988552e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818163</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468303</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683032</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683034</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683058</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26493,16 +26493,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26511,7 +26511,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707820.8153428843</v>
+        <v>-707820.8153428846</v>
       </c>
       <c r="C6" t="n">
-        <v>620923.9303847082</v>
+        <v>620923.9303847085</v>
       </c>
       <c r="D6" t="n">
-        <v>620923.930384708</v>
+        <v>620923.9303847086</v>
       </c>
       <c r="E6" t="n">
-        <v>367267.3646575566</v>
+        <v>367580.0059864775</v>
       </c>
       <c r="F6" t="n">
-        <v>692679.8264649113</v>
+        <v>692992.4677938325</v>
       </c>
       <c r="G6" t="n">
-        <v>692679.8264649117</v>
+        <v>692992.4677938335</v>
       </c>
       <c r="H6" t="n">
-        <v>692679.8264649117</v>
+        <v>692992.4677938328</v>
       </c>
       <c r="I6" t="n">
-        <v>692679.8264649118</v>
+        <v>692992.4677938331</v>
       </c>
       <c r="J6" t="n">
-        <v>475148.6240676341</v>
+        <v>475461.2653965548</v>
       </c>
       <c r="K6" t="n">
-        <v>692679.8264649119</v>
+        <v>692992.4677938328</v>
       </c>
       <c r="L6" t="n">
-        <v>692679.8264649118</v>
+        <v>692992.4677938328</v>
       </c>
       <c r="M6" t="n">
-        <v>607624.7985293999</v>
+        <v>607937.439858321</v>
       </c>
       <c r="N6" t="n">
-        <v>692679.8264649119</v>
+        <v>692992.4677938332</v>
       </c>
       <c r="O6" t="n">
-        <v>692679.8264649117</v>
+        <v>692992.4677938329</v>
       </c>
       <c r="P6" t="n">
-        <v>692679.8264649117</v>
+        <v>692992.4677938328</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26776,10 +26776,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26792,16 +26792,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>66.54216182877173</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>183.2875889591576</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>294.3692147095458</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>76.09032876016227</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944182</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>277.2566436803262</v>
+        <v>331.8898480104169</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>83.32522828944178</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>201.3876335676841</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,22 +28092,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-9.658889269502098e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>-2.557953848736361e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.126388037344441e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.149071603537373e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>163.1438255932938</v>
+        <v>163.143825593292</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488886</v>
+        <v>357.9244589488872</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33745,31 +33745,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>211.3773391483988</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067201</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067262</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175671</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L45" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106787</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>20.54758114884936</v>
+        <v>20.54758114884752</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>226.5827468655553</v>
+        <v>226.5827468655539</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>71.39556506237724</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236314206</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113583</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236320278</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
